--- a/medicine/Mort/Décès_en_1915/Décès_en_1915.xlsx
+++ b/medicine/Mort/Décès_en_1915/Décès_en_1915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1915</t>
+          <t>Décès_en_1915</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1915</t>
+          <t>Décès_en_1915</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Louis Andlauer, organiste et compositeur français (° 7 septembre 1877).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Louis Andlauer, organiste et compositeur français (° 7 septembre 1877).
 Luigi Crosio, peintre italien (° 1835).
 Angelo Torchi, peintre italien  macchiaiolo (° 17 décembre 1856).
 Vers 1915 :
-Eugène Pospolitaki, peintre russe (° 1852).
-Janvier
-1er janvier : Francis Tattegrain, peintre français (° 11 octobre 1852).
+Eugène Pospolitaki, peintre russe (° 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Francis Tattegrain, peintre français (° 11 octobre 1852).
 4 janvier : Anton von Werner, peintre prussien (° 9 mai 1843).
 5 janvier : Pierre Gourdault, peintre français (° 18 mai 1880).
 7 janvier : Georges Mathey, peintre et sculpteur français (° 15 mai 1887).
@@ -544,24 +595,126 @@
 Adolphe Gustave Gerhardt, officier de cavalerie français (° 26 août 1824).
 21 janvier : Louis Gregh, compositeur français (° 16 mars 1843).
 24 janvier : Carl Haag, peintre allemand (° 20 avril 1820).
-25 janvier :  Philippe Zacharie, peintre français (° 23 avril 1849).
-Février
-2 février : Michel Abonnel, peintre français (° 15 janvier 1881).
+25 janvier :  Philippe Zacharie, peintre français (° 23 avril 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Michel Abonnel, peintre français (° 15 janvier 1881).
 6 février : Théophile Poilpot, peintre français (° 20 mars 1848).
 11 février :
 Gustave Navlet, sculpteur français (° 25 avril 1832).
 Thomas Scott, militaire et homme politique canadien (° 16 février 1841).
 17 février : « Plumeta » (Léonce André), matador français (° 16 septembre 1880).
 27 février : Fritz Reiss, peintre, lithographe et illustrateur allemand (° 18 mars 1857).
-28 février : Francesco Lojacono, peintre paysagiste italien (° 16 mai 1838).
-Mars
-5 mars : Henri Doucet, dessinateur et peintre français (° 16 décembre 1883).
+28 février : Francesco Lojacono, peintre paysagiste italien (° 16 mai 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Henri Doucet, dessinateur et peintre français (° 16 décembre 1883).
 8 mars : Wilhelm Wiegand, archiviste et historien allemand (° 5 novembre 1851).
 14 mars : Guido Sigriste, peintre suisse (° 10 avril 1864).
 17 mars : André François, footballeur français (° 13 janvier 1886).
-26 mars : Michel Bréal, linguiste français (° 26 mars 1832).
-Avril
-1er avril : Johann Joseph Abert, compositeur allemand (° 20 septembre 1832).
+26 mars : Michel Bréal, linguiste français (° 26 mars 1832).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Johann Joseph Abert, compositeur allemand (° 20 septembre 1832).
 3 avril :
 Paul-Armand Girardet, peintre et graveur français (° 20 mai 1859).
 Nadežda Petrović, peintre serbe (° 12 octobre 1873).
@@ -572,35 +725,171 @@
 27 avril :
 John Labatt, homme d'affaires et brasseur canadien (° 11 décembre 1838).
 Alexandre Scriabine, compositeur russe (° 6 janvier 1872).
-29 avril : Salvador Viniegra, peintre d'histoire et mécène espagnol (° 23 novembre 1862).
-Mai
-2 mai : Clara Immerwahr, chimiste allemande (° 21 juin 1870).
+29 avril : Salvador Viniegra, peintre d'histoire et mécène espagnol (° 23 novembre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Clara Immerwahr, chimiste allemande (° 21 juin 1870).
 9 mai : François Faber, coureur cycliste luxembourgeois (° 26 janvier 1887).
 11 mai : Louis Cartier-Bresson, peintre français (° 5 octobre 1882).
 15 mai :
 Jules-René Bouffanais, peintre et graveur français (° 4 janvier 1885).
 Charles Heyman, peintre aquarelliste et graveur aquafortiste français (° 9 août 1881).
-21 mai : Max Buri, peintre suisse (° 24 juillet 1868).
-Juin
-11 juin : Jean Angeli, écrivain français (° 3 janvier 1886).
+21 mai : Max Buri, peintre suisse (° 24 juillet 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>11 juin : Jean Angeli, écrivain français (° 3 janvier 1886).
 14 juin : Antoine Audet, homme politique fédéral provenant du Québec (° 8 décembre 1846).
 15 juin : Eugène Jansson, peintre suédois (° 18 mars 1862).
 16 juin :
 Elmer Booth, acteur américain (° 9 décembre 1882).
 Louis Jollivet, peintre décorateur et céramiste français (° 16 mai 1876).
 19 juin : Sergueï Taneïev, compositeur russe (° 25 novembre 1856).
-20 juin : Rémy Duhem, peintre et avocat français (° 1er octobre 1891).
-Juillet
-2 juillet : Porfirio Díaz, président du Mexique jusqu'en 1911 (° 15 septembre 1830).
+20 juin : Rémy Duhem, peintre et avocat français (° 1er octobre 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Porfirio Díaz, président du Mexique jusqu'en 1911 (° 15 septembre 1830).
 5 juillet : Paul Descelles, peintre français (° 22 mars 1851).
 6 juillet : Paul Wachs, organiste, pianiste et compositeur français (° 19 septembre 1851).
 10 juillet : Hendrik Willem Mesdag, peintre néerlandais (° 23 février 1831).
 16 juillet : Ellen White, cofondatrice de l'Église adventiste du septième jour (° 26 novembre 1827).
 18 juillet : Franz Deutmann, peintre et photographe néerlandais (° 27 mars 1867).
 22 juillet : Sandford Fleming, ingénieur et inventeur canadien originaire d'Écosse (° 7 janvier 1827).
-30 juillet : Alexis Lizal, peintre français (° 23 janvier 1878).
-Août
-9 août :
+30 juillet : Alexis Lizal, peintre français (° 23 janvier 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9 août :
 Maurice Baud, peintre, graveur et essayiste suisse (° 14 août 1866).
 Frank Bramley, peintre anglais (° 6 mai 1857).
 Peter Bücken, peintre allemand (° 16 mars 1830).
@@ -610,11 +899,45 @@
 22 août : Augustin Barié, organiste et compositeur français (° 15 novembre 1883).
 23 août :
 Eduardo Dalbono, peintre italien (° 10 décembre 1841).
-Eugène Ducretet, ingénieur, pionnier français de la radio[1] (° 27 novembre 1844).
+Eugène Ducretet, ingénieur, pionnier français de la radio (° 27 novembre 1844).
 26 août :  Laurent de Rillé, enseignant, compositeur et orphéoniste français (° 24 novembre 1824).
-31 août : Louis Tauzin, peintre paysagiste et lithographe français (° 21 juillet 1842).
-Septembre
-6 septembre : Albert Féquant, aviateur français (° 2 janvier 1886).
+31 août : Louis Tauzin, peintre paysagiste et lithographe français (° 21 juillet 1842).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6 septembre : Albert Féquant, aviateur français (° 2 janvier 1886).
 10 septembre :
 Charles-Eugène Boucher de Boucherville, premier ministre du Québec (° 4 mai 1822).
 Marius Thé, coureur cycliste français (° 24 septembre 1871).
@@ -626,9 +949,43 @@
 29 septembre :
 Maurice-Edme Drouard, peintre, dessinateur et sculpteur français (° 8 mai 1886).
 Caroline de Maupeou, peintre française (° 31 décembre 1836).
-Rudi Stephan, compositeur allemand (° 29 juillet 1887).
-Octobre
-2 octobre : Jean-Bertrand Pégot-Ogier, peintre et dessinateur français (° 7 mai 1877).
+Rudi Stephan, compositeur allemand (° 29 juillet 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Jean-Bertrand Pégot-Ogier, peintre et dessinateur français (° 7 mai 1877).
 4 octobre : Carles Gumersind Vidiella i Esteba, pianiste et compositeur espagnol (° 1856).
 5 octobre :
 Otto Malling, compositeur et organiste danois (° 1er juin 1848).
@@ -641,21 +998,123 @@
 19 octobre :
 Christian Wilhelm Allers, illustrateur, dessinateur et peintre allemand  (° 6 août 1857).
 Neil McLeod, premier ministre de l'Île-du-Prince-Édouard (° 15 décembre 1842).
-30 octobre : Charles Tupper, premier ministre du Canada (° 2 juillet 1821).
-Novembre
-10 novembre : Louis Nattero, peintre marseillais (° 16 octobre 1870).
+30 octobre : Charles Tupper, premier ministre du Canada (° 2 juillet 1821).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10 novembre : Louis Nattero, peintre marseillais (° 16 octobre 1870).
 24 novembre : Gabriel von Max, peintre autrichien né en Bohême (° 23 août 1840).
-28 novembre : Georges Jordic-Pignon, illustrateur et peintre français (° 5 janvier 1876).
-Décembre
-4 décembre : Osvaldo Tofani, peintre, aquarelliste, dessinateur, graveur et illustrateur italien (° 18 septembre 1849).
+28 novembre : Georges Jordic-Pignon, illustrateur et peintre français (° 5 janvier 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4 décembre : Osvaldo Tofani, peintre, aquarelliste, dessinateur, graveur et illustrateur italien (° 18 septembre 1849).
 6 décembre : Armand Charnay, peintre français (° 7 janvier 1844).
 11 décembre : Annibale Brugnoli, peintre italien (° 22 février 1843).
 19 décembre : Aloïs Alzheimer, neuropsychiatre allemand (° 14 juin 1864).
 20 décembre : Achille Chainaye, sculpteur et journaliste belge (° 26 août 1862).
 22 décembre : Arthur Rickhard Ramsay, militaire finlandais (° 3 avril 1838).
-27 décembre : Pierre-Nicolas Euler, peintre français (° 12 janvier 1846).
-Date inconnue
-William Lee, peintre et potier français (° 1860).
+27 décembre : Pierre-Nicolas Euler, peintre français (° 12 janvier 1846).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1915</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1915</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>William Lee, peintre et potier français (° 1860).
 Mutaga IV, sultan du Burundi (° vers 1892).</t>
         </is>
       </c>
